--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/Documents/SODAS/sem3/nlp_itu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F2AECE-0CDF-B74A-82A4-2BD7A90EA259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B62462-8D8D-C142-A8EE-17F87C6B4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17220" xr2:uid="{55C6936D-CA1B-3E49-80A2-0F9F885B54C9}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>LBK nr 978 af 19/10/2009'</t>
   </si>
   <si>
-    <t>Hvem kan på baggrund af en evaluering fastsætte regler om kvalitetsudvikling, herunder lærerkvalifikationer mv.</t>
-  </si>
-  <si>
     <t>Undervisningsministeren kan  på baggrund af en evaluering fastsætte regler om kvalitetsudvikling, herunder lærerkvalifikationer m.v.</t>
   </si>
   <si>
@@ -507,6 +504,9 @@
   </si>
   <si>
     <t>LOV nr 473 af 12/06/2009</t>
+  </si>
+  <si>
+    <t>Hvem kan på baggrund af en evaluering fastsætte regler om kvalitetsudvikling, herunder lærerkvalifikationer mv?</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,7 +981,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1049,242 +1049,242 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
       </c>
       <c r="D11">
         <v>813</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D14">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
       </c>
       <c r="D16">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D17">
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D21">
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1292,290 +1292,290 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
         <v>102</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
         <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" t="s">
         <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" t="s">
         <v>124</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
       </c>
       <c r="D32">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" t="s">
         <v>128</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>129</v>
       </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" t="s">
         <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
         <v>135</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" t="s">
         <v>140</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>147</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
       </c>
       <c r="D39">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
         <v>153</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>154</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/Documents/SODAS/sem3/nlp_itu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/ANLPDP_exam/devset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F2AECE-0CDF-B74A-82A4-2BD7A90EA259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445B64E-48A6-0D42-A24A-565A5688C5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17220" xr2:uid="{55C6936D-CA1B-3E49-80A2-0F9F885B54C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
   <si>
     <t>question, str</t>
   </si>
@@ -53,12 +53,6 @@
     <t>'Ejeren af en ejerlejlighed har sammen med andre ejere af lejligheder ejendomsret til grunden, fælles bestanddele og tilbehør m.v. efter et fordelingstal, der fastsættes som en brøkdel. Til lejligheden hører i samme forhold rettigheder og forpligtelser for ejeren som medlem af ejerforeningen. De i stk. 1 og 2 omhandlede rettigheder og forpligtelser kan ikke adskilles fra ejendomsretten til lejligheden.'</t>
   </si>
   <si>
-    <t>Hvad har ejeren af en ejerlejlighed, sammen med andre ejere af lejligheder, ejendoms ret til?</t>
-  </si>
-  <si>
-    <t>Grunden, fælles bestanddele og tilbehør</t>
-  </si>
-  <si>
     <t>pnumber, str</t>
   </si>
   <si>
@@ -137,18 +131,6 @@
     <t>LBK nr 600 af 21/05/2019</t>
   </si>
   <si>
-    <t>Hvad kaldes 'Det Internationale Atomenergiagenturs (IAEA) konvention af 26. september 1986 om bistand i tilfælde af nukleare ulykker eller radiologiske nødstilfælde også?</t>
-  </si>
-  <si>
-    <t>Bistandskonventionen.</t>
-  </si>
-  <si>
-    <t>'Det Internationale Atomenergiagenturs (IAEA) konvention af 26. september 1986 om bistand i tilfælde af nukleare ulykker eller radiologiske nødstilfælde (bistandskonventionen), jf. bilag 1 til denne lov, gælder her i landet.'</t>
-  </si>
-  <si>
-    <t>LOV nr 464 af 17/06/2008</t>
-  </si>
-  <si>
     <t>Hvornår kan Beskæftigelsesministeren efter forhandling med KL overtage etablering og drift af Ydelsesrefusion?</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
     <t>Hvem afgør om en bolig skal brandsikres?</t>
   </si>
   <si>
-    <t>Boligtilsynet</t>
-  </si>
-  <si>
     <t>'Ejeren af en beboelsesbygning, som efter meddelelse fra kommunalbestyrelsen er omfattet af § 3, skal lade foretage en gennemgang af bygningen for at konstatere, om den opfylder kravene til brandsikring, og derefter afgive indberetning til boligtilsynet, jfr. lov om boligtilsyn, om de foranstaltninger, som er nødvendige for at opfylde kravene. Boligtilsynet afgør, om bygningen skal brandsikres i overensstemmelse med de krav, der er fastsat i medfør af denne lov, eller om kravene under hensyn til bygningens begrænsede levetid kan lempes. Finder boligtilsynet, at en bygnings hele tilstand og indretning er af en sådan beskaffenhed, at det ud fra en sundhedsmæssig og socialhygiejnisk vurdering skønnes urimeligt at brandsikre bygningen efter stk. 2, når herved tillige henses til bygningens begrænsede levetid og de udgifter, der er forbundet med udførelsen af brandsikring, skal tilsynet i stedet meddele forbud mod benyttelse af bygningen efter udløbet af en nærmere fastsat frist, der ikke må overstige 6 måneder. Boligtilsynets beslutninger efter stk. 2 og 3 træffes inden udgangen af maj 1977.'</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Hvem skal ansøgeren eller indehaveren indgive en anmodning til for at dele en dansk varemærkeansøgning eller -registrering i to eller flere særskilte ansøgninger?</t>
   </si>
   <si>
-    <t xml:space="preserve">Ansøgeren eller indehaveren kan dele en dansk varemærkeansøgning eller -registrering ved at indgive en anmodning herom til Patent- og Varemærkestyrelsen </t>
-  </si>
-  <si>
     <t>'Ansøgeren eller indehaveren kan dele en dansk varemærkeansøgning eller -registrering i to eller flere særskilte ansøgninger eller registreringer ved at indgive en anmodning herom til Patent- og Varemærkestyrelsen og for hver udskilt ansøgning eller registrering anføre, hvilke varer eller tjenesteydelser fra den oprindelige ansøgning eller registrering der skal omfattes af de udskilte ansøgninger eller registreringer. For anmodning om deling efter stk. 1 betales et gebyr, jf. § 60 d, stk. 1.'</t>
   </si>
   <si>
@@ -239,9 +215,6 @@
     <t>Hvad finder Kildeskattelovens bestemmelser uændret anvendelse på?</t>
   </si>
   <si>
-    <t>Dødsboer og mellemperioder vedrørende personer, som er afgået ved døden før lovens ikrafttræden, på beskatningen af længstlevende ægtefæller og modtagere af udlæg og begravelsesudlæg efter personer, der er afgået ved døden før denne lovs ikrafttræden, samt på skifte af uskiftede boer, hvor anmodning om skifte er indgivet før denne lovs ikrafttræden.'</t>
-  </si>
-  <si>
     <t>'Kildeskattelovens bestemmelser finder uændret anvendelse på dødsboer og mellemperioder vedrørende personer, som er afgået ved døden før lovens ikrafttræden, på beskatningen af længstlevende ægtefæller og modtagere af udlæg og begravelsesudlæg efter personer, der er afgået ved døden før denne lovs ikrafttræden, samt på skifte af uskiftede boer, hvor anmodning om skifte er indgivet før denne lovs ikrafttræden.'</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
     <t>Hvem kan tillade, at der meddeles personer, som ikke opfylder de almindelige førlighedsbestemmelser, særlige kørekort?</t>
   </si>
   <si>
-    <t>Justitsministeren</t>
-  </si>
-  <si>
     <t>'Justitsministeren kan tillade, at der meddeles personer, som ikke opfylder de almindelige førlighedsbestemmelser, særlige kørekort, samt at kørekort til langsomtkørende invalidekøretøjer udstedes til personer, der er fyldt 15 år. Justitsministeren kan fastsætte yderligere betingelser for udstedelse af kørekort til motorkøretøjer, der benyttes erhvervsmæssigt til befordring af personer. Bestemmelsen i § 114, stk. 2, i den gældende kriminallov for Grønland svarer til § 164, stk. 2, i den ny kriminallov for Grønland (lov nr. 306 af 30. april 2008), der træder i kraft den 1. januar 2010.'</t>
   </si>
   <si>
@@ -275,9 +245,6 @@
     <t>Hvem har mulighed for at tilkøbe ekstra standsningssteder?</t>
   </si>
   <si>
-    <t>Odder Kommune, Syddjurs Kommune og Norddjurs Kommune</t>
-  </si>
-  <si>
     <t>'Odder Kommune, Syddjurs Kommune og Norddjurs Kommune har mulighed for at tilkøbe ekstra standsningssteder el.lign.'</t>
   </si>
   <si>
@@ -299,9 +266,6 @@
     <t>Hvor overføres indeståender til i Særlig Pensionsopsparing (SP), som det ikke har været muligt at udbetale på grund af kontohaverens forhold?</t>
   </si>
   <si>
-    <t>Arbejdsmarkedets Tillægspension</t>
-  </si>
-  <si>
     <t>'Indeståender i Særlig Pensionsopsparing (SP), som det ikke har været muligt at udbetale på grund af kontohaverens forhold, overføres pr. 1. oktober 2010 til Arbejdsmarkedets Tillægspension til forvaltning. En kontohaver eller boet efter en afdød kontohaver, der kan dokumentere et krav på et indestående, kan i perioden fra den 1. maj 2010 til den 1. maj 2015 henvende sig til Arbejdsmarkedets Tillægspension og få udbetalt tilgodehavendet. Overførte indeståender som nævnt i stk. 1, som kontohaver eller boet efter en kontohaver ikke senest den 30. april 2015 har anmodet om at få udbetalt, tilfalder Arbejdsmarkedets Tillægspension.'</t>
   </si>
   <si>
@@ -311,9 +275,6 @@
     <t>Hvis virksomhed omfatter dopingkontrol, dopingkontrol, anmeldelse og indbringelse af dopingsager, oplysningsvirksomhed, forsknings- og udviklingsvirksomhed vedrørende bekæmpelse af doping, deltagelse i internationalt samarbejde om bekæmpelse af doping og rådgivning og bistand til offentlige myndigheder?</t>
   </si>
   <si>
-    <t>Anti Doping Danmark</t>
-  </si>
-  <si>
     <t>'Anti Doping Danmarks virksomhed omfatter dopingkontrol, dopingkontrol, anmeldelse og indbringelse af dopingsager, oplysningsvirksomhed, forsknings- og udviklingsvirksomhed vedrørende bekæmpelse af doping, deltagelse i internationalt samarbejde om bekæmpelse af doping og rådgivning og bistand til offentlige myndigheder i sager inden for Anti Doping Danmarks virkeområde.'</t>
   </si>
   <si>
@@ -377,9 +338,6 @@
     <t>Hvem kan indenfor en beløbsramme fastsat på finansloven yde støtte til forfattere, oversættere og andre skabere af litterære værker, herunder tegneserieskabere og illustratorer, forfattere, oversættere og andre skabere af litterære værker?</t>
   </si>
   <si>
-    <t>Statens Kunstfond</t>
-  </si>
-  <si>
     <t>LOV nr 458 af 08/05/2013</t>
   </si>
   <si>
@@ -446,9 +404,6 @@
     <t>Hvem fastsætter nærmere regler om det offentlige register over rumgenstande?</t>
   </si>
   <si>
-    <t>Uddannelses- og forskningsministeren</t>
-  </si>
-  <si>
     <t>Uddannelses- og forskningsministeren opretter og fører et offentligt register over rumgenstande. Hvis både Danmark og en eller flere stater, som er omfattet af konvention af 14. januar 1975 om registrering af genstande, der sendes ud i det ydre rum, betragtes som opsendende stater, registrerer uddannelses- og forskningsministeren rumgenstanden, når det er bestemt i en aftale mellem de berørte stater. Uddannelses- og forskningsministeren videreformidler oplysninger til FN's generalsekretær som fastsat i konventionen, der er nævnt i stk. 2. Uddannelses- og forskningsministeren fastsætter nærmere regler om det offentlige register over rumgenstande og hvilke oplysninger operatøren skal indberette til brug for registrering.</t>
   </si>
   <si>
@@ -470,9 +425,6 @@
     <t>Hvad skal Beskæftigelsesministeriet og Finanstilsynets indsendte årsrapport i det mindste indeholde?</t>
   </si>
   <si>
-    <t>Hvad er konsekvensen af at en sundhedsperson, der er ansvarlig for behandling med assisteret reproduktion, vurderer at en</t>
-  </si>
-  <si>
     <t>Hvad er fagligheden primært forbundet med produktionsgrunduddannelse?</t>
   </si>
   <si>
@@ -488,9 +440,6 @@
     <t>Hvem kan fastsætte nærmere regler om rensning af skorstene og røgkanaler samt om eftersyn i bygninger, hvori der er indrettet ildsteder?</t>
   </si>
   <si>
-    <t>Transport- og bygningsministeren</t>
-  </si>
-  <si>
     <t>'Transport- og bygningsministeren kan fastsætte nærmere regler om rensning af skorstene og røgkanaler samt om eftersyn i bygninger, hvori der er indrettet ildsteder.'</t>
   </si>
   <si>
@@ -500,13 +449,49 @@
     <t>Hvem skal regering modtage ansøgning fra for at støtte grønlandsk ansøgning om medlemskab i internationale organisationer?</t>
   </si>
   <si>
-    <t xml:space="preserve">Naalakkersuisut </t>
-  </si>
-  <si>
     <t>'Hvor internationale organisationer åbner adgang for, at andre enheder end stater og sammenslutninger af stater kan opnå medlemskab i eget navn, kan regeringen efter anmodning fra Naalakkersuisut beslutte at indgive eller støtte en ansøgning herom fra Grønland, hvor dette er foreneligt med Grønlands forfatningsmæssige status.'</t>
   </si>
   <si>
     <t>LOV nr 473 af 12/06/2009</t>
+  </si>
+  <si>
+    <t>Hvad har ejeren af en ejerlejlighed, sammen med andre ejere af lejligheder, ejendomsret til?</t>
+  </si>
+  <si>
+    <t>Grunden, fælles bestanddele og tilbehør.</t>
+  </si>
+  <si>
+    <t>Boligtilsynet.</t>
+  </si>
+  <si>
+    <t>Ansøgeren eller indehaveren kan dele en dansk varemærkeansøgning eller -registrering ved at indgive en anmodning herom til Patent- og Varemærkestyrelsen.</t>
+  </si>
+  <si>
+    <t>Dødsboer og mellemperioder vedrørende personer, som er afgået ved døden før lovens ikrafttræden, på beskatningen af længstlevende ægtefæller og modtagere af udlæg og begravelsesudlæg efter personer, der er afgået ved døden før denne lovs ikrafttræden, samt på skifte af uskiftede boer, hvor anmodning om skifte er indgivet før denne lovs ikrafttræden.</t>
+  </si>
+  <si>
+    <t>Justitsministeren.</t>
+  </si>
+  <si>
+    <t>Odder Kommune, Syddjurs Kommune og Norddjurs Kommune.</t>
+  </si>
+  <si>
+    <t>Arbejdsmarkedets Tillægspension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Doping Danmark. </t>
+  </si>
+  <si>
+    <t>Statens Kunstfond.</t>
+  </si>
+  <si>
+    <t>Uddannelses- og forskningsministeren.</t>
+  </si>
+  <si>
+    <t>Transport- og bygningsministeren.</t>
+  </si>
+  <si>
+    <t>Naalakkersuisut.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,7 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -914,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED290CC-672B-E74C-9B5B-6EF516C43DA7}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -947,10 +931,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -959,623 +943,604 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>813</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11">
-        <v>813</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="D16">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D28">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
+      <c r="A29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>117</v>
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
         <v>127</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/ANLPDP_exam/devset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445B64E-48A6-0D42-A24A-565A5688C5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5934B7E-279E-0644-982D-91576F0879E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17220" xr2:uid="{55C6936D-CA1B-3E49-80A2-0F9F885B54C9}"/>
   </bookViews>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/ANLPDP_exam/devset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5934B7E-279E-0644-982D-91576F0879E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC5EC9-F55E-8749-ADCE-109AD7CD64AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17220" xr2:uid="{55C6936D-CA1B-3E49-80A2-0F9F885B54C9}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>Hvornår afskediges præster, provster og biskopper?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fra udgangen af den måned, hvori de fylder 70 år.</t>
-  </si>
-  <si>
     <t>Præster, provster og biskopper afskediges fra udgangen af den måned, hvori de fylder 70 år.</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>Naalakkersuisut.</t>
+  </si>
+  <si>
+    <t>Fra udgangen af den måned, hvori de fylder 70 år.</t>
   </si>
 </sst>
 </file>
@@ -900,9 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED290CC-672B-E74C-9B5B-6EF516C43DA7}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -931,10 +929,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -965,7 +963,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1087,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -1152,7 +1150,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
@@ -1169,7 +1167,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
@@ -1186,7 +1184,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>62</v>
@@ -1217,7 +1215,7 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -1248,7 +1246,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>76</v>
@@ -1265,7 +1263,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>79</v>
@@ -1364,7 +1362,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
         <v>98</v>
@@ -1432,13 +1430,13 @@
         <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
         <v>114</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
@@ -1446,101 +1444,101 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
         <v>121</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" t="s">
         <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
       </c>
       <c r="D35">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" t="s">
         <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>131</v>
       </c>
       <c r="D36">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
         <v>133</v>
-      </c>
-      <c r="B37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>137</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/Documents/SODAS/sem3/nlp_itu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwagnerhoegh/ANLPDP_exam/devset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B62462-8D8D-C142-A8EE-17F87C6B4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC5EC9-F55E-8749-ADCE-109AD7CD64AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17220" xr2:uid="{55C6936D-CA1B-3E49-80A2-0F9F885B54C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
   <si>
     <t>question, str</t>
   </si>
@@ -53,12 +53,6 @@
     <t>'Ejeren af en ejerlejlighed har sammen med andre ejere af lejligheder ejendomsret til grunden, fælles bestanddele og tilbehør m.v. efter et fordelingstal, der fastsættes som en brøkdel. Til lejligheden hører i samme forhold rettigheder og forpligtelser for ejeren som medlem af ejerforeningen. De i stk. 1 og 2 omhandlede rettigheder og forpligtelser kan ikke adskilles fra ejendomsretten til lejligheden.'</t>
   </si>
   <si>
-    <t>Hvad har ejeren af en ejerlejlighed, sammen med andre ejere af lejligheder, ejendoms ret til?</t>
-  </si>
-  <si>
-    <t>Grunden, fælles bestanddele og tilbehør</t>
-  </si>
-  <si>
     <t>pnumber, str</t>
   </si>
   <si>
@@ -125,6 +119,9 @@
     <t>LBK nr 978 af 19/10/2009'</t>
   </si>
   <si>
+    <t>Hvem kan på baggrund af en evaluering fastsætte regler om kvalitetsudvikling, herunder lærerkvalifikationer mv.</t>
+  </si>
+  <si>
     <t>Undervisningsministeren kan  på baggrund af en evaluering fastsætte regler om kvalitetsudvikling, herunder lærerkvalifikationer m.v.</t>
   </si>
   <si>
@@ -134,18 +131,6 @@
     <t>LBK nr 600 af 21/05/2019</t>
   </si>
   <si>
-    <t>Hvad kaldes 'Det Internationale Atomenergiagenturs (IAEA) konvention af 26. september 1986 om bistand i tilfælde af nukleare ulykker eller radiologiske nødstilfælde også?</t>
-  </si>
-  <si>
-    <t>Bistandskonventionen.</t>
-  </si>
-  <si>
-    <t>'Det Internationale Atomenergiagenturs (IAEA) konvention af 26. september 1986 om bistand i tilfælde af nukleare ulykker eller radiologiske nødstilfælde (bistandskonventionen), jf. bilag 1 til denne lov, gælder her i landet.'</t>
-  </si>
-  <si>
-    <t>LOV nr 464 af 17/06/2008</t>
-  </si>
-  <si>
     <t>Hvornår kan Beskæftigelsesministeren efter forhandling med KL overtage etablering og drift af Ydelsesrefusion?</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>Hvem afgør om en bolig skal brandsikres?</t>
   </si>
   <si>
-    <t>Boligtilsynet</t>
-  </si>
-  <si>
     <t>'Ejeren af en beboelsesbygning, som efter meddelelse fra kommunalbestyrelsen er omfattet af § 3, skal lade foretage en gennemgang af bygningen for at konstatere, om den opfylder kravene til brandsikring, og derefter afgive indberetning til boligtilsynet, jfr. lov om boligtilsyn, om de foranstaltninger, som er nødvendige for at opfylde kravene. Boligtilsynet afgør, om bygningen skal brandsikres i overensstemmelse med de krav, der er fastsat i medfør af denne lov, eller om kravene under hensyn til bygningens begrænsede levetid kan lempes. Finder boligtilsynet, at en bygnings hele tilstand og indretning er af en sådan beskaffenhed, at det ud fra en sundhedsmæssig og socialhygiejnisk vurdering skønnes urimeligt at brandsikre bygningen efter stk. 2, når herved tillige henses til bygningens begrænsede levetid og de udgifter, der er forbundet med udførelsen af brandsikring, skal tilsynet i stedet meddele forbud mod benyttelse af bygningen efter udløbet af en nærmere fastsat frist, der ikke må overstige 6 måneder. Boligtilsynets beslutninger efter stk. 2 og 3 træffes inden udgangen af maj 1977.'</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t>Hvem skal ansøgeren eller indehaveren indgive en anmodning til for at dele en dansk varemærkeansøgning eller -registrering i to eller flere særskilte ansøgninger?</t>
   </si>
   <si>
-    <t xml:space="preserve">Ansøgeren eller indehaveren kan dele en dansk varemærkeansøgning eller -registrering ved at indgive en anmodning herom til Patent- og Varemærkestyrelsen </t>
-  </si>
-  <si>
     <t>'Ansøgeren eller indehaveren kan dele en dansk varemærkeansøgning eller -registrering i to eller flere særskilte ansøgninger eller registreringer ved at indgive en anmodning herom til Patent- og Varemærkestyrelsen og for hver udskilt ansøgning eller registrering anføre, hvilke varer eller tjenesteydelser fra den oprindelige ansøgning eller registrering der skal omfattes af de udskilte ansøgninger eller registreringer. For anmodning om deling efter stk. 1 betales et gebyr, jf. § 60 d, stk. 1.'</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
     <t>Hvad finder Kildeskattelovens bestemmelser uændret anvendelse på?</t>
   </si>
   <si>
-    <t>Dødsboer og mellemperioder vedrørende personer, som er afgået ved døden før lovens ikrafttræden, på beskatningen af længstlevende ægtefæller og modtagere af udlæg og begravelsesudlæg efter personer, der er afgået ved døden før denne lovs ikrafttræden, samt på skifte af uskiftede boer, hvor anmodning om skifte er indgivet før denne lovs ikrafttræden.'</t>
-  </si>
-  <si>
     <t>'Kildeskattelovens bestemmelser finder uændret anvendelse på dødsboer og mellemperioder vedrørende personer, som er afgået ved døden før lovens ikrafttræden, på beskatningen af længstlevende ægtefæller og modtagere af udlæg og begravelsesudlæg efter personer, der er afgået ved døden før denne lovs ikrafttræden, samt på skifte af uskiftede boer, hvor anmodning om skifte er indgivet før denne lovs ikrafttræden.'</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t>Hvem kan tillade, at der meddeles personer, som ikke opfylder de almindelige førlighedsbestemmelser, særlige kørekort?</t>
   </si>
   <si>
-    <t>Justitsministeren</t>
-  </si>
-  <si>
     <t>'Justitsministeren kan tillade, at der meddeles personer, som ikke opfylder de almindelige førlighedsbestemmelser, særlige kørekort, samt at kørekort til langsomtkørende invalidekøretøjer udstedes til personer, der er fyldt 15 år. Justitsministeren kan fastsætte yderligere betingelser for udstedelse af kørekort til motorkøretøjer, der benyttes erhvervsmæssigt til befordring af personer. Bestemmelsen i § 114, stk. 2, i den gældende kriminallov for Grønland svarer til § 164, stk. 2, i den ny kriminallov for Grønland (lov nr. 306 af 30. april 2008), der træder i kraft den 1. januar 2010.'</t>
   </si>
   <si>
@@ -272,9 +245,6 @@
     <t>Hvem har mulighed for at tilkøbe ekstra standsningssteder?</t>
   </si>
   <si>
-    <t>Odder Kommune, Syddjurs Kommune og Norddjurs Kommune</t>
-  </si>
-  <si>
     <t>'Odder Kommune, Syddjurs Kommune og Norddjurs Kommune har mulighed for at tilkøbe ekstra standsningssteder el.lign.'</t>
   </si>
   <si>
@@ -296,9 +266,6 @@
     <t>Hvor overføres indeståender til i Særlig Pensionsopsparing (SP), som det ikke har været muligt at udbetale på grund af kontohaverens forhold?</t>
   </si>
   <si>
-    <t>Arbejdsmarkedets Tillægspension</t>
-  </si>
-  <si>
     <t>'Indeståender i Særlig Pensionsopsparing (SP), som det ikke har været muligt at udbetale på grund af kontohaverens forhold, overføres pr. 1. oktober 2010 til Arbejdsmarkedets Tillægspension til forvaltning. En kontohaver eller boet efter en afdød kontohaver, der kan dokumentere et krav på et indestående, kan i perioden fra den 1. maj 2010 til den 1. maj 2015 henvende sig til Arbejdsmarkedets Tillægspension og få udbetalt tilgodehavendet. Overførte indeståender som nævnt i stk. 1, som kontohaver eller boet efter en kontohaver ikke senest den 30. april 2015 har anmodet om at få udbetalt, tilfalder Arbejdsmarkedets Tillægspension.'</t>
   </si>
   <si>
@@ -308,9 +275,6 @@
     <t>Hvis virksomhed omfatter dopingkontrol, dopingkontrol, anmeldelse og indbringelse af dopingsager, oplysningsvirksomhed, forsknings- og udviklingsvirksomhed vedrørende bekæmpelse af doping, deltagelse i internationalt samarbejde om bekæmpelse af doping og rådgivning og bistand til offentlige myndigheder?</t>
   </si>
   <si>
-    <t>Anti Doping Danmark</t>
-  </si>
-  <si>
     <t>'Anti Doping Danmarks virksomhed omfatter dopingkontrol, dopingkontrol, anmeldelse og indbringelse af dopingsager, oplysningsvirksomhed, forsknings- og udviklingsvirksomhed vedrørende bekæmpelse af doping, deltagelse i internationalt samarbejde om bekæmpelse af doping og rådgivning og bistand til offentlige myndigheder i sager inden for Anti Doping Danmarks virkeområde.'</t>
   </si>
   <si>
@@ -374,9 +338,6 @@
     <t>Hvem kan indenfor en beløbsramme fastsat på finansloven yde støtte til forfattere, oversættere og andre skabere af litterære værker, herunder tegneserieskabere og illustratorer, forfattere, oversættere og andre skabere af litterære værker?</t>
   </si>
   <si>
-    <t>Statens Kunstfond</t>
-  </si>
-  <si>
     <t>LOV nr 458 af 08/05/2013</t>
   </si>
   <si>
@@ -419,9 +380,6 @@
     <t>Hvornår afskediges præster, provster og biskopper?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fra udgangen af den måned, hvori de fylder 70 år.</t>
-  </si>
-  <si>
     <t>Præster, provster og biskopper afskediges fra udgangen af den måned, hvori de fylder 70 år.</t>
   </si>
   <si>
@@ -443,9 +401,6 @@
     <t>Hvem fastsætter nærmere regler om det offentlige register over rumgenstande?</t>
   </si>
   <si>
-    <t>Uddannelses- og forskningsministeren</t>
-  </si>
-  <si>
     <t>Uddannelses- og forskningsministeren opretter og fører et offentligt register over rumgenstande. Hvis både Danmark og en eller flere stater, som er omfattet af konvention af 14. januar 1975 om registrering af genstande, der sendes ud i det ydre rum, betragtes som opsendende stater, registrerer uddannelses- og forskningsministeren rumgenstanden, når det er bestemt i en aftale mellem de berørte stater. Uddannelses- og forskningsministeren videreformidler oplysninger til FN's generalsekretær som fastsat i konventionen, der er nævnt i stk. 2. Uddannelses- og forskningsministeren fastsætter nærmere regler om det offentlige register over rumgenstande og hvilke oplysninger operatøren skal indberette til brug for registrering.</t>
   </si>
   <si>
@@ -467,9 +422,6 @@
     <t>Hvad skal Beskæftigelsesministeriet og Finanstilsynets indsendte årsrapport i det mindste indeholde?</t>
   </si>
   <si>
-    <t>Hvad er konsekvensen af at en sundhedsperson, der er ansvarlig for behandling med assisteret reproduktion, vurderer at en</t>
-  </si>
-  <si>
     <t>Hvad er fagligheden primært forbundet med produktionsgrunduddannelse?</t>
   </si>
   <si>
@@ -485,9 +437,6 @@
     <t>Hvem kan fastsætte nærmere regler om rensning af skorstene og røgkanaler samt om eftersyn i bygninger, hvori der er indrettet ildsteder?</t>
   </si>
   <si>
-    <t>Transport- og bygningsministeren</t>
-  </si>
-  <si>
     <t>'Transport- og bygningsministeren kan fastsætte nærmere regler om rensning af skorstene og røgkanaler samt om eftersyn i bygninger, hvori der er indrettet ildsteder.'</t>
   </si>
   <si>
@@ -497,16 +446,52 @@
     <t>Hvem skal regering modtage ansøgning fra for at støtte grønlandsk ansøgning om medlemskab i internationale organisationer?</t>
   </si>
   <si>
-    <t xml:space="preserve">Naalakkersuisut </t>
-  </si>
-  <si>
     <t>'Hvor internationale organisationer åbner adgang for, at andre enheder end stater og sammenslutninger af stater kan opnå medlemskab i eget navn, kan regeringen efter anmodning fra Naalakkersuisut beslutte at indgive eller støtte en ansøgning herom fra Grønland, hvor dette er foreneligt med Grønlands forfatningsmæssige status.'</t>
   </si>
   <si>
     <t>LOV nr 473 af 12/06/2009</t>
   </si>
   <si>
-    <t>Hvem kan på baggrund af en evaluering fastsætte regler om kvalitetsudvikling, herunder lærerkvalifikationer mv?</t>
+    <t>Hvad har ejeren af en ejerlejlighed, sammen med andre ejere af lejligheder, ejendomsret til?</t>
+  </si>
+  <si>
+    <t>Grunden, fælles bestanddele og tilbehør.</t>
+  </si>
+  <si>
+    <t>Boligtilsynet.</t>
+  </si>
+  <si>
+    <t>Ansøgeren eller indehaveren kan dele en dansk varemærkeansøgning eller -registrering ved at indgive en anmodning herom til Patent- og Varemærkestyrelsen.</t>
+  </si>
+  <si>
+    <t>Dødsboer og mellemperioder vedrørende personer, som er afgået ved døden før lovens ikrafttræden, på beskatningen af længstlevende ægtefæller og modtagere af udlæg og begravelsesudlæg efter personer, der er afgået ved døden før denne lovs ikrafttræden, samt på skifte af uskiftede boer, hvor anmodning om skifte er indgivet før denne lovs ikrafttræden.</t>
+  </si>
+  <si>
+    <t>Justitsministeren.</t>
+  </si>
+  <si>
+    <t>Odder Kommune, Syddjurs Kommune og Norddjurs Kommune.</t>
+  </si>
+  <si>
+    <t>Arbejdsmarkedets Tillægspension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Doping Danmark. </t>
+  </si>
+  <si>
+    <t>Statens Kunstfond.</t>
+  </si>
+  <si>
+    <t>Uddannelses- og forskningsministeren.</t>
+  </si>
+  <si>
+    <t>Transport- og bygningsministeren.</t>
+  </si>
+  <si>
+    <t>Naalakkersuisut.</t>
+  </si>
+  <si>
+    <t>Fra udgangen af den måned, hvori de fylder 70 år.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,7 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -914,11 +898,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED290CC-672B-E74C-9B5B-6EF516C43DA7}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -938,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -947,10 +929,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -959,623 +941,604 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>813</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
-        <v>813</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="D16">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>67</v>
-      </c>
-      <c r="D17">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
         <v>91</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
+      <c r="B27" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>108</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
         <v>126</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <t>question, str</t>
   </si>
@@ -304,10 +304,13 @@
     <t>LBK nr 314 af 03/04/2017</t>
   </si>
   <si>
-    <t>Hvornår kan Nævnet for Videnskabelig Uredelighed behandle sager af egen drift?</t>
+    <t>Hvornår kan Nævnet for Videnskabelig Uredelighed kan behandle sager af egen drift?</t>
   </si>
   <si>
     <t>Hvis der foreligger en begrundet formodning om videnskabelig uredelighed.</t>
+  </si>
+  <si>
+    <t>'Nævnet for Videnskabelig Uredelighed kan behandle sager af egen drift, hvis der foreligger en begrundet formodning om videnskabelig uredelighed. Den forskningsinstitution, hvor forskningen er udført, skal efter anmodning fra nævnet bistå med en redegørelse for sagens faktiske omstændigheder.'</t>
   </si>
   <si>
     <t>LOV nr 383 af 26/04/2017</t>
@@ -558,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -582,6 +585,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -898,15 +904,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="80.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="49.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +984,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1020,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1321,57 +1327,57 @@
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>93</v>
+      <c r="C24" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D24" s="4">
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>93</v>
@@ -1386,197 +1392,197 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="4">
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="4">
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>15</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F38" s="3"/>
     </row>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <t>question, str</t>
   </si>
@@ -310,6 +310,9 @@
     <t>Hvis der foreligger en begrundet formodning om videnskabelig uredelighed.</t>
   </si>
   <si>
+    <t>'Nævnet for Videnskabelig Uredelighed kan behandle sager af egen drift, hvis der foreligger en begrundet formodning om videnskabelig uredelighed. Den forskningsinstitution, hvor forskningen er udført, skal efter anmodning fra nævnet bistå med en redegørelse for sagens faktiske omstændigheder.'</t>
+  </si>
+  <si>
     <t>LOV nr 383 af 26/04/2017</t>
   </si>
   <si>
@@ -317,6 +320,9 @@
   </si>
   <si>
     <t>I alle tilfælde, hvor den begunstigede er indsat efter lovens ikrafttræden.</t>
+  </si>
+  <si>
+    <t>'De i loven for livs-, ulykkes- og sygeforsikring givne regler om begunstigede kommer til anvendelse i alle tilfælde, hvor den begunstigede er indsat efter lovens ikrafttræden.'</t>
   </si>
   <si>
     <t>LBK nr 1237 af 09/11/2015</t>
@@ -558,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -582,6 +588,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -898,12 +907,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="49.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="49.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1321,57 +1330,57 @@
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>93</v>
+      <c r="C24" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D24" s="4">
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>93</v>
@@ -1386,197 +1395,197 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D29" s="4">
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D35" s="4">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D36" s="4">
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D37" s="4">
         <v>15</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F38" s="3"/>
     </row>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <t>question, str</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>I alle tilfælde, hvor den begunstigede er indsat efter lovens ikrafttræden.</t>
+  </si>
+  <si>
+    <t>'De i loven for livs-, ulykkes- og sygeforsikring givne regler om begunstigede kommer til anvendelse i alle tilfælde, hvor den begunstigede er indsat efter lovens ikrafttræden.'</t>
   </si>
   <si>
     <t>LBK nr 1237 af 09/11/2015</t>
@@ -1345,39 +1348,39 @@
       <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>93</v>
+      <c r="C25" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>93</v>
@@ -1392,197 +1395,197 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="4">
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="4">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="4">
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="4">
         <v>15</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F38" s="3"/>
     </row>

--- a/devset/Legal questions Adam.xlsx
+++ b/devset/Legal questions Adam.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
-    <t>question, str</t>
-  </si>
-  <si>
-    <t>answer, str</t>
-  </si>
-  <si>
-    <t>text, str</t>
-  </si>
-  <si>
-    <t>pnumber, str</t>
-  </si>
-  <si>
-    <t>law number, str</t>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>pnumber</t>
+  </si>
+  <si>
+    <t>law number</t>
   </si>
   <si>
     <t>Hvad har ejeren af en ejerlejlighed, sammen med andre ejere af lejligheder, ejendomsret til?</t>
@@ -483,7 +483,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +496,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -564,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -578,19 +584,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -907,12 +916,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="49.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="49.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -933,7 +942,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -951,7 +960,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1014,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1050,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1068,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1114,7 @@
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1187,7 +1196,7 @@
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1211,7 +1220,7 @@
       <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1245,7 +1254,7 @@
       <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
@@ -1324,13 +1333,13 @@
       <c r="F23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="4">
@@ -1342,23 +1351,23 @@
       <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1379,7 +1388,7 @@
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1502,7 +1511,7 @@
       <c r="F33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1583,7 +1592,7 @@
       <c r="C38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="3" t="s">
         <v>153</v>
       </c>
